--- a/_private/economy/economy2018/stmt_month_2018.xlsx
+++ b/_private/economy/economy2018/stmt_month_2018.xlsx
@@ -3135,8 +3135,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -3346,7 +3346,7 @@
         <v>-2282</v>
       </c>
       <c r="G5" s="52">
-        <f t="shared" ref="G5:R5" si="0">G2+G3-G4</f>
+        <f t="shared" ref="G5" si="0">G2+G3-G4</f>
         <v>-2282</v>
       </c>
       <c r="H5" s="2">
@@ -3401,7 +3401,7 @@
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2">
-        <f t="shared" ref="G6:R6" si="1">G5+G50</f>
+        <f t="shared" ref="G6" si="1">G5+G50</f>
         <v>329</v>
       </c>
       <c r="H6" s="2">
@@ -3503,7 +3503,7 @@
       </c>
       <c r="H8" s="52">
         <f>H7-H56</f>
-        <v>0</v>
+        <v>-5931</v>
       </c>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
@@ -3553,43 +3553,54 @@
       </c>
       <c r="F10" s="2">
         <f>ROUND(SUM(G10:R10)/No_months1,0)</f>
-        <v>2345</v>
+        <v>4690</v>
       </c>
       <c r="G10" s="38">
         <f>28141</f>
         <v>28141</v>
       </c>
       <c r="H10" s="38">
-        <v>0</v>
+        <f>28141</f>
+        <v>28141</v>
       </c>
       <c r="I10" s="38">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="J10" s="38">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="K10" s="38">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="L10" s="38">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="M10" s="38">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="N10" s="38">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="O10" s="38">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="P10" s="38">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="Q10" s="38">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="R10" s="38">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="S10" s="2"/>
@@ -3610,6 +3621,50 @@
         <f>G10+G2+G3+G7</f>
         <v>40041</v>
       </c>
+      <c r="H11">
+        <f>H10+H2+H3+H7</f>
+        <v>28141</v>
+      </c>
+      <c r="I11">
+        <f>I10+I2+I3+I7</f>
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <f>J10+J2+J3+J7</f>
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <f>K10+K2+K3+K7</f>
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <f>L10+L2+L3+L7</f>
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <f>M10+M2+M3+M7</f>
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <f>N10+N2+N3+N7</f>
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <f>O10+O2+O3+O7</f>
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <f>P10+P2+P3+P7</f>
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <f>Q10+Q2+Q3+Q7</f>
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <f>R10+R2+R3+R7</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B12" s="97" t="s">
@@ -3620,7 +3675,51 @@
       </c>
       <c r="G12">
         <f>G15</f>
-        <v>57113</v>
+        <v>57835</v>
+      </c>
+      <c r="H12">
+        <f>H15</f>
+        <v>34356</v>
+      </c>
+      <c r="I12">
+        <f>I15</f>
+        <v>110</v>
+      </c>
+      <c r="J12">
+        <f>J15</f>
+        <v>110</v>
+      </c>
+      <c r="K12">
+        <f>K15</f>
+        <v>110</v>
+      </c>
+      <c r="L12">
+        <f>L15</f>
+        <v>110</v>
+      </c>
+      <c r="M12">
+        <f>M15</f>
+        <v>110</v>
+      </c>
+      <c r="N12">
+        <f>N15</f>
+        <v>110</v>
+      </c>
+      <c r="O12">
+        <f>O15</f>
+        <v>110</v>
+      </c>
+      <c r="P12">
+        <f>P15</f>
+        <v>110</v>
+      </c>
+      <c r="Q12">
+        <f>Q15</f>
+        <v>110</v>
+      </c>
+      <c r="R12">
+        <f>R15</f>
+        <v>110</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
@@ -3632,55 +3731,55 @@
       <c r="E13" s="99"/>
       <c r="F13" s="99">
         <f>SUM(G13:R13)</f>
-        <v>-17794</v>
+        <v>-25109</v>
       </c>
       <c r="G13" s="117">
         <f>G11-G12</f>
-        <v>-17072</v>
-      </c>
-      <c r="H13" s="98">
+        <v>-17794</v>
+      </c>
+      <c r="H13" s="117">
         <f t="shared" ref="H13:R13" si="2">H6+H10-H15</f>
-        <v>-722</v>
+        <v>-6215</v>
       </c>
       <c r="I13" s="98">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-110</v>
       </c>
       <c r="J13" s="98">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-110</v>
       </c>
       <c r="K13" s="98">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-110</v>
       </c>
       <c r="L13" s="98">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-110</v>
       </c>
       <c r="M13" s="98">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-110</v>
       </c>
       <c r="N13" s="98">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-110</v>
       </c>
       <c r="O13" s="98">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-110</v>
       </c>
       <c r="P13" s="98">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-110</v>
       </c>
       <c r="Q13" s="98">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-110</v>
       </c>
       <c r="R13" s="98">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-110</v>
       </c>
       <c r="S13" s="2"/>
       <c r="T13" s="2"/>
@@ -3752,55 +3851,55 @@
       </c>
       <c r="F15" s="48">
         <f>ROUND(SUM(H15:R15)/C1,0)</f>
-        <v>722</v>
+        <v>35456</v>
       </c>
       <c r="G15" s="49">
         <f>SUM(G16:G55)-G47</f>
-        <v>57113</v>
+        <v>57835</v>
       </c>
       <c r="H15" s="49">
         <f t="shared" ref="H15:R15" si="3">SUM(H16:H46)+SUM(H48:H55)</f>
-        <v>722</v>
+        <v>34356</v>
       </c>
       <c r="I15" s="49">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="J15" s="49">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="K15" s="49">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="L15" s="49">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="M15" s="49">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="N15" s="49">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="O15" s="49">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="P15" s="49">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="Q15" s="49">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="R15" s="49">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="S15" s="3"/>
       <c r="T15" s="3"/>
@@ -3823,14 +3922,15 @@
       </c>
       <c r="F16" s="38">
         <f t="shared" ref="F16:F49" si="4">ROUND(SUM(G16:R16)/antal_mån,0)</f>
-        <v>313</v>
+        <v>625</v>
       </c>
       <c r="G16" s="38">
         <f>6193-G17</f>
         <v>3753</v>
       </c>
       <c r="H16" s="38">
-        <v>0</v>
+        <f>6190-H17</f>
+        <v>3750</v>
       </c>
       <c r="I16" s="38">
         <v>0</v>
@@ -3883,13 +3983,13 @@
       </c>
       <c r="F17" s="38">
         <f t="shared" si="4"/>
-        <v>203</v>
+        <v>407</v>
       </c>
       <c r="G17" s="38">
         <v>2440</v>
       </c>
       <c r="H17" s="38">
-        <v>0</v>
+        <v>2440</v>
       </c>
       <c r="I17" s="38">
         <v>0</v>
@@ -3998,7 +4098,7 @@
         <v>2365</v>
       </c>
       <c r="H19" s="38">
-        <v>0</v>
+        <v>2594</v>
       </c>
       <c r="I19" s="38">
         <v>0</v>
@@ -4051,14 +4151,15 @@
       </c>
       <c r="F20" s="38">
         <f t="shared" si="4"/>
-        <v>405</v>
+        <v>572</v>
       </c>
       <c r="G20" s="38">
         <f>1985+2873</f>
         <v>4858</v>
       </c>
       <c r="H20" s="38">
-        <v>0</v>
+        <f>1652+357</f>
+        <v>2009</v>
       </c>
       <c r="I20" s="38">
         <v>0</v>
@@ -4298,13 +4399,13 @@
       </c>
       <c r="F24" s="38">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="G24" s="38">
         <v>0</v>
       </c>
       <c r="H24" s="38">
-        <v>0</v>
+        <v>1117</v>
       </c>
       <c r="I24" s="38">
         <v>0</v>
@@ -4480,11 +4581,11 @@
         <v>420</v>
       </c>
       <c r="F27" s="38">
-        <f t="shared" si="4"/>
-        <v>35</v>
+        <f>ROUND(SUM(G27:R27)/antal_mån,0)</f>
+        <v>70</v>
       </c>
       <c r="G27" s="38">
-        <v>0</v>
+        <v>419</v>
       </c>
       <c r="H27" s="38">
         <v>419</v>
@@ -4541,15 +4642,16 @@
         <v>628</v>
       </c>
       <c r="F28" s="38">
-        <f t="shared" si="4"/>
-        <v>25</v>
+        <f>ROUND(SUM(G28:R28)/antal_mån,0)</f>
+        <v>82</v>
       </c>
       <c r="G28" s="38">
-        <v>0</v>
+        <f>722-G27</f>
+        <v>303</v>
       </c>
       <c r="H28" s="38">
-        <f>722-H27</f>
-        <v>303</v>
+        <f>1097-H27</f>
+        <v>678</v>
       </c>
       <c r="I28" s="38">
         <v>0</v>
@@ -4602,14 +4704,14 @@
       </c>
       <c r="F29" s="38">
         <f t="shared" si="4"/>
-        <v>54</v>
+        <v>146</v>
       </c>
       <c r="G29" s="38">
         <f>653</f>
         <v>653</v>
       </c>
       <c r="H29" s="38">
-        <v>0</v>
+        <v>1104</v>
       </c>
       <c r="I29" s="38">
         <v>0</v>
@@ -5138,43 +5240,43 @@
       </c>
       <c r="F38" s="38">
         <f t="shared" si="4"/>
-        <v>9</v>
+        <v>110</v>
       </c>
       <c r="G38" s="38">
         <v>110</v>
       </c>
       <c r="H38" s="38">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="I38" s="38">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="J38" s="38">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="K38" s="38">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="L38" s="38">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="M38" s="38">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="N38" s="38">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="O38" s="38">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="P38" s="38">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="Q38" s="38">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="R38" s="38">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="S38" s="2"/>
       <c r="T38" s="2"/>
@@ -5615,15 +5717,15 @@
       </c>
       <c r="F46" s="38">
         <f t="shared" si="4"/>
-        <v>2707</v>
+        <v>4073</v>
       </c>
       <c r="G46" s="38">
         <f t="shared" ref="G46:R46" si="5">G47-G29-G32-G36-G37-G42-G44</f>
         <v>32483</v>
       </c>
       <c r="H46" s="38">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" ref="H46" si="6">H47-H29-H32-H36-H37-H42-H44</f>
+        <v>16393</v>
       </c>
       <c r="I46" s="38">
         <f t="shared" si="5"/>
@@ -5684,13 +5786,13 @@
       <c r="E47" s="45"/>
       <c r="F47" s="38">
         <f t="shared" si="4"/>
-        <v>2761</v>
+        <v>4219</v>
       </c>
       <c r="G47" s="38">
         <v>33136</v>
       </c>
       <c r="H47" s="38">
-        <v>0</v>
+        <v>17497</v>
       </c>
       <c r="I47" s="38">
         <v>0</v>
@@ -5862,7 +5964,7 @@
         <v>1956</v>
       </c>
       <c r="F50" s="38">
-        <f t="shared" ref="F50:F55" si="6">ROUND(SUM(G50:R50)/antal_mån,0)</f>
+        <f t="shared" ref="F50:F55" si="7">ROUND(SUM(G50:R50)/antal_mån,0)</f>
         <v>218</v>
       </c>
       <c r="G50" s="38">
@@ -5921,7 +6023,7 @@
         <v>2527</v>
       </c>
       <c r="F51" s="38">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>216</v>
       </c>
       <c r="G51" s="38">
@@ -5980,7 +6082,7 @@
         <v>230</v>
       </c>
       <c r="F52" s="38">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>62</v>
       </c>
       <c r="G52" s="38">
@@ -6040,7 +6142,7 @@
         <v>150</v>
       </c>
       <c r="F53" s="38">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G53" s="38">
@@ -6099,14 +6201,14 @@
         <v>3742</v>
       </c>
       <c r="F54" s="38">
-        <f t="shared" si="6"/>
-        <v>312</v>
+        <f t="shared" si="7"/>
+        <v>624</v>
       </c>
       <c r="G54" s="38">
         <v>3742</v>
       </c>
-      <c r="H54" s="38">
-        <v>0</v>
+      <c r="H54" s="58">
+        <v>3742</v>
       </c>
       <c r="I54" s="38">
         <v>0</v>
@@ -6158,7 +6260,7 @@
         <v>0</v>
       </c>
       <c r="F55" s="38">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G55" s="38">
@@ -6218,13 +6320,13 @@
       </c>
       <c r="F56" s="38">
         <f>ROUND(SUM(G56:R56)/antal_mån,0)</f>
-        <v>493</v>
+        <v>987</v>
       </c>
       <c r="G56" s="38">
         <v>5918</v>
       </c>
       <c r="H56" s="38">
-        <v>0</v>
+        <v>5931</v>
       </c>
       <c r="I56" s="38">
         <v>0</v>
@@ -6395,13 +6497,14 @@
       </c>
       <c r="F59" s="38">
         <f>ROUND(SUM(G59:R59)/antal_mån,0)</f>
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="G59" s="38">
         <v>0</v>
       </c>
       <c r="H59" s="38">
-        <v>0</v>
+        <f>175*2</f>
+        <v>350</v>
       </c>
       <c r="I59" s="38">
         <v>0</v>
@@ -6638,7 +6741,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/_private/economy/economy2018/stmt_month_2018.xlsx
+++ b/_private/economy/economy2018/stmt_month_2018.xlsx
@@ -3135,8 +3135,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -3154,7 +3154,7 @@
         <v>18</v>
       </c>
       <c r="C1" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D1" s="2"/>
       <c r="F1" s="2"/>
@@ -3189,10 +3189,10 @@
         <v>2000</v>
       </c>
       <c r="H2" s="2">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="I2" s="2">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="J2" s="2">
         <v>0</v>
@@ -3241,10 +3241,10 @@
         <v>5400</v>
       </c>
       <c r="H3" s="2">
-        <v>0</v>
+        <v>5400</v>
       </c>
       <c r="I3" s="2">
-        <v>0</v>
+        <v>5400</v>
       </c>
       <c r="J3" s="2">
         <v>0</v>
@@ -3294,10 +3294,12 @@
         <v>9682</v>
       </c>
       <c r="H4" s="2">
-        <v>0</v>
+        <f>SUM(H50:H55)</f>
+        <v>8972</v>
       </c>
       <c r="I4" s="2">
-        <v>0</v>
+        <f>SUM(I50:I55)</f>
+        <v>9227</v>
       </c>
       <c r="J4" s="2">
         <v>0</v>
@@ -3343,17 +3345,19 @@
       <c r="E5" s="2"/>
       <c r="F5" s="2">
         <f>SUM(G5:R5)</f>
+        <v>-5681</v>
+      </c>
+      <c r="G5" s="52">
+        <f t="shared" ref="G5:I5" si="0">G2+G3-G4</f>
         <v>-2282</v>
       </c>
-      <c r="G5" s="52">
-        <f t="shared" ref="G5" si="0">G2+G3-G4</f>
-        <v>-2282</v>
-      </c>
-      <c r="H5" s="2">
-        <v>0</v>
-      </c>
-      <c r="I5" s="2">
-        <v>0</v>
+      <c r="H5" s="52">
+        <f t="shared" si="0"/>
+        <v>-1572</v>
+      </c>
+      <c r="I5" s="52">
+        <f t="shared" si="0"/>
+        <v>-1827</v>
       </c>
       <c r="J5" s="2">
         <v>0</v>
@@ -3401,14 +3405,16 @@
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2">
-        <f t="shared" ref="G6" si="1">G5+G50</f>
+        <f t="shared" ref="G6:I6" si="1">G5+G50</f>
         <v>329</v>
       </c>
       <c r="H6" s="2">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1039</v>
       </c>
       <c r="I6" s="2">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>784</v>
       </c>
       <c r="J6" s="2">
         <v>0</v>
@@ -3505,7 +3511,10 @@
         <f>H7-H56</f>
         <v>-5931</v>
       </c>
-      <c r="I8" s="2"/>
+      <c r="I8" s="52">
+        <f>I7-I56</f>
+        <v>-5914</v>
+      </c>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
@@ -3553,7 +3562,7 @@
       </c>
       <c r="F10" s="2">
         <f>ROUND(SUM(G10:R10)/No_months1,0)</f>
-        <v>4690</v>
+        <v>10017</v>
       </c>
       <c r="G10" s="38">
         <f>28141</f>
@@ -3564,8 +3573,8 @@
         <v>28141</v>
       </c>
       <c r="I10" s="38">
-        <f>0</f>
-        <v>0</v>
+        <f>33927+28141+1854</f>
+        <v>63922</v>
       </c>
       <c r="J10" s="38">
         <f>0</f>
@@ -3618,51 +3627,51 @@
         <v>46</v>
       </c>
       <c r="G11">
-        <f>G10+G2+G3+G7</f>
+        <f t="shared" ref="G11:R11" si="2">G10+G2+G3+G7</f>
         <v>40041</v>
       </c>
       <c r="H11">
-        <f>H10+H2+H3+H7</f>
-        <v>28141</v>
+        <f t="shared" si="2"/>
+        <v>35541</v>
       </c>
       <c r="I11">
-        <f>I10+I2+I3+I7</f>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>71322</v>
       </c>
       <c r="J11">
-        <f>J10+J2+J3+J7</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K11">
-        <f>K10+K2+K3+K7</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L11">
-        <f>L10+L2+L3+L7</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M11">
-        <f>M10+M2+M3+M7</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N11">
-        <f>N10+N2+N3+N7</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O11">
-        <f>O10+O2+O3+O7</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P11">
-        <f>P10+P2+P3+P7</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Q11">
-        <f>Q10+Q2+Q3+Q7</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R11">
-        <f>R10+R2+R3+R7</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -3674,51 +3683,51 @@
         <v>46</v>
       </c>
       <c r="G12">
-        <f>G15</f>
+        <f t="shared" ref="G12:R12" si="3">G15</f>
         <v>57835</v>
       </c>
       <c r="H12">
-        <f>H15</f>
-        <v>34356</v>
+        <f t="shared" si="3"/>
+        <v>39586</v>
       </c>
       <c r="I12">
-        <f>I15</f>
+        <f t="shared" si="3"/>
+        <v>60289</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="3"/>
         <v>110</v>
       </c>
-      <c r="J12">
-        <f>J15</f>
+      <c r="K12">
+        <f t="shared" si="3"/>
         <v>110</v>
       </c>
-      <c r="K12">
-        <f>K15</f>
+      <c r="L12">
+        <f t="shared" si="3"/>
         <v>110</v>
       </c>
-      <c r="L12">
-        <f>L15</f>
+      <c r="M12">
+        <f t="shared" si="3"/>
         <v>110</v>
       </c>
-      <c r="M12">
-        <f>M15</f>
+      <c r="N12">
+        <f t="shared" si="3"/>
         <v>110</v>
       </c>
-      <c r="N12">
-        <f>N15</f>
+      <c r="O12">
+        <f t="shared" si="3"/>
         <v>110</v>
       </c>
-      <c r="O12">
-        <f>O15</f>
+      <c r="P12">
+        <f t="shared" si="3"/>
         <v>110</v>
       </c>
-      <c r="P12">
-        <f>P15</f>
+      <c r="Q12">
+        <f t="shared" si="3"/>
         <v>110</v>
       </c>
-      <c r="Q12">
-        <f>Q15</f>
-        <v>110</v>
-      </c>
       <c r="R12">
-        <f>R15</f>
+        <f t="shared" si="3"/>
         <v>110</v>
       </c>
     </row>
@@ -3731,54 +3740,54 @@
       <c r="E13" s="99"/>
       <c r="F13" s="99">
         <f>SUM(G13:R13)</f>
-        <v>-25109</v>
+        <v>-24773</v>
       </c>
       <c r="G13" s="117">
         <f>G11-G12</f>
         <v>-17794</v>
       </c>
       <c r="H13" s="117">
-        <f t="shared" ref="H13:R13" si="2">H6+H10-H15</f>
-        <v>-6215</v>
+        <f t="shared" ref="H13:R13" si="4">H6+H10-H15</f>
+        <v>-10406</v>
       </c>
       <c r="I13" s="98">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
+        <v>4417</v>
+      </c>
+      <c r="J13" s="98">
+        <f t="shared" si="4"/>
         <v>-110</v>
       </c>
-      <c r="J13" s="98">
-        <f t="shared" si="2"/>
+      <c r="K13" s="98">
+        <f t="shared" si="4"/>
         <v>-110</v>
       </c>
-      <c r="K13" s="98">
-        <f t="shared" si="2"/>
+      <c r="L13" s="98">
+        <f t="shared" si="4"/>
         <v>-110</v>
       </c>
-      <c r="L13" s="98">
-        <f t="shared" si="2"/>
+      <c r="M13" s="98">
+        <f t="shared" si="4"/>
         <v>-110</v>
       </c>
-      <c r="M13" s="98">
-        <f t="shared" si="2"/>
+      <c r="N13" s="98">
+        <f t="shared" si="4"/>
         <v>-110</v>
       </c>
-      <c r="N13" s="98">
-        <f t="shared" si="2"/>
+      <c r="O13" s="98">
+        <f t="shared" si="4"/>
         <v>-110</v>
       </c>
-      <c r="O13" s="98">
-        <f t="shared" si="2"/>
+      <c r="P13" s="98">
+        <f t="shared" si="4"/>
         <v>-110</v>
       </c>
-      <c r="P13" s="98">
-        <f t="shared" si="2"/>
+      <c r="Q13" s="98">
+        <f t="shared" si="4"/>
         <v>-110</v>
       </c>
-      <c r="Q13" s="98">
-        <f t="shared" si="2"/>
-        <v>-110</v>
-      </c>
       <c r="R13" s="98">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-110</v>
       </c>
       <c r="S13" s="2"/>
@@ -3851,54 +3860,54 @@
       </c>
       <c r="F15" s="48">
         <f>ROUND(SUM(H15:R15)/C1,0)</f>
-        <v>35456</v>
+        <v>33622</v>
       </c>
       <c r="G15" s="49">
         <f>SUM(G16:G55)-G47</f>
         <v>57835</v>
       </c>
       <c r="H15" s="49">
-        <f t="shared" ref="H15:R15" si="3">SUM(H16:H46)+SUM(H48:H55)</f>
-        <v>34356</v>
+        <f t="shared" ref="H15:R15" si="5">SUM(H16:H46)+SUM(H48:H55)</f>
+        <v>39586</v>
       </c>
       <c r="I15" s="49">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
+        <v>60289</v>
+      </c>
+      <c r="J15" s="49">
+        <f t="shared" si="5"/>
         <v>110</v>
       </c>
-      <c r="J15" s="49">
-        <f t="shared" si="3"/>
+      <c r="K15" s="49">
+        <f t="shared" si="5"/>
         <v>110</v>
       </c>
-      <c r="K15" s="49">
-        <f t="shared" si="3"/>
+      <c r="L15" s="49">
+        <f t="shared" si="5"/>
         <v>110</v>
       </c>
-      <c r="L15" s="49">
-        <f t="shared" si="3"/>
+      <c r="M15" s="49">
+        <f t="shared" si="5"/>
         <v>110</v>
       </c>
-      <c r="M15" s="49">
-        <f t="shared" si="3"/>
+      <c r="N15" s="49">
+        <f t="shared" si="5"/>
         <v>110</v>
       </c>
-      <c r="N15" s="49">
-        <f t="shared" si="3"/>
+      <c r="O15" s="49">
+        <f t="shared" si="5"/>
         <v>110</v>
       </c>
-      <c r="O15" s="49">
-        <f t="shared" si="3"/>
+      <c r="P15" s="49">
+        <f t="shared" si="5"/>
         <v>110</v>
       </c>
-      <c r="P15" s="49">
-        <f t="shared" si="3"/>
+      <c r="Q15" s="49">
+        <f t="shared" si="5"/>
         <v>110</v>
       </c>
-      <c r="Q15" s="49">
-        <f t="shared" si="3"/>
-        <v>110</v>
-      </c>
       <c r="R15" s="49">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>110</v>
       </c>
       <c r="S15" s="3"/>
@@ -3921,8 +3930,8 @@
         <v>3100</v>
       </c>
       <c r="F16" s="38">
-        <f t="shared" ref="F16:F49" si="4">ROUND(SUM(G16:R16)/antal_mån,0)</f>
-        <v>625</v>
+        <f t="shared" ref="F16:F49" si="6">ROUND(SUM(G16:R16)/antal_mån,0)</f>
+        <v>938</v>
       </c>
       <c r="G16" s="38">
         <f>6193-G17</f>
@@ -3933,7 +3942,8 @@
         <v>3750</v>
       </c>
       <c r="I16" s="38">
-        <v>0</v>
+        <f>6187-I17</f>
+        <v>3747</v>
       </c>
       <c r="J16" s="38">
         <v>0</v>
@@ -3982,8 +3992,8 @@
         <v>2400</v>
       </c>
       <c r="F17" s="38">
-        <f t="shared" si="4"/>
-        <v>407</v>
+        <f t="shared" si="6"/>
+        <v>610</v>
       </c>
       <c r="G17" s="38">
         <v>2440</v>
@@ -3992,7 +4002,7 @@
         <v>2440</v>
       </c>
       <c r="I17" s="38">
-        <v>0</v>
+        <v>2440</v>
       </c>
       <c r="J17" s="38">
         <v>0</v>
@@ -4038,7 +4048,10 @@
       </c>
       <c r="D18" s="45"/>
       <c r="E18" s="45"/>
-      <c r="F18" s="38"/>
+      <c r="F18" s="38">
+        <f t="shared" si="6"/>
+        <v>37</v>
+      </c>
       <c r="G18" s="38">
         <f>2583-G19</f>
         <v>218</v>
@@ -4047,7 +4060,7 @@
         <v>0</v>
       </c>
       <c r="I18" s="38">
-        <v>0</v>
+        <v>223</v>
       </c>
       <c r="J18" s="38">
         <v>0</v>
@@ -4093,7 +4106,10 @@
       </c>
       <c r="D19" s="45"/>
       <c r="E19" s="45"/>
-      <c r="F19" s="38"/>
+      <c r="F19" s="38">
+        <f t="shared" si="6"/>
+        <v>629</v>
+      </c>
       <c r="G19" s="38">
         <v>2365</v>
       </c>
@@ -4101,7 +4117,7 @@
         <v>2594</v>
       </c>
       <c r="I19" s="38">
-        <v>0</v>
+        <v>2588</v>
       </c>
       <c r="J19" s="38">
         <v>0</v>
@@ -4150,8 +4166,8 @@
         <v>2300</v>
       </c>
       <c r="F20" s="38">
-        <f t="shared" si="4"/>
-        <v>572</v>
+        <f t="shared" si="6"/>
+        <v>1167</v>
       </c>
       <c r="G20" s="38">
         <f>1985+2873</f>
@@ -4162,7 +4178,8 @@
         <v>2009</v>
       </c>
       <c r="I20" s="38">
-        <v>0</v>
+        <f>5374+1763</f>
+        <v>7137</v>
       </c>
       <c r="J20" s="38">
         <v>0</v>
@@ -4213,8 +4230,8 @@
         <v>610</v>
       </c>
       <c r="F21" s="38">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>155</v>
       </c>
       <c r="G21" s="38">
         <v>0</v>
@@ -4223,7 +4240,7 @@
         <v>0</v>
       </c>
       <c r="I21" s="38">
-        <v>0</v>
+        <v>1864</v>
       </c>
       <c r="J21" s="38">
         <v>0</v>
@@ -4274,7 +4291,7 @@
         <v>425</v>
       </c>
       <c r="F22" s="38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G22" s="38">
@@ -4335,7 +4352,7 @@
         <v>90</v>
       </c>
       <c r="F23" s="38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G23" s="38">
@@ -4398,7 +4415,7 @@
         <v>369</v>
       </c>
       <c r="F24" s="38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>93</v>
       </c>
       <c r="G24" s="38">
@@ -4459,7 +4476,7 @@
         <v>35</v>
       </c>
       <c r="F25" s="38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G25" s="38">
@@ -4520,8 +4537,8 @@
         <v>50</v>
       </c>
       <c r="F26" s="38">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>51</v>
       </c>
       <c r="G26" s="38">
         <v>0</v>
@@ -4530,7 +4547,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="38">
-        <v>0</v>
+        <v>617</v>
       </c>
       <c r="J26" s="38">
         <v>0</v>
@@ -4582,7 +4599,7 @@
       </c>
       <c r="F27" s="38">
         <f>ROUND(SUM(G27:R27)/antal_mån,0)</f>
-        <v>70</v>
+        <v>105</v>
       </c>
       <c r="G27" s="38">
         <v>419</v>
@@ -4591,7 +4608,7 @@
         <v>419</v>
       </c>
       <c r="I27" s="38">
-        <v>0</v>
+        <v>419</v>
       </c>
       <c r="J27" s="38">
         <v>0</v>
@@ -4643,7 +4660,7 @@
       </c>
       <c r="F28" s="38">
         <f>ROUND(SUM(G28:R28)/antal_mån,0)</f>
-        <v>82</v>
+        <v>138</v>
       </c>
       <c r="G28" s="38">
         <f>722-G27</f>
@@ -4654,7 +4671,8 @@
         <v>678</v>
       </c>
       <c r="I28" s="38">
-        <v>0</v>
+        <f>1097-I27</f>
+        <v>678</v>
       </c>
       <c r="J28" s="38">
         <v>0</v>
@@ -4703,7 +4721,7 @@
         <v>3000</v>
       </c>
       <c r="F29" s="38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>146</v>
       </c>
       <c r="G29" s="38">
@@ -4765,7 +4783,7 @@
         <v>315</v>
       </c>
       <c r="F30" s="38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G30" s="38">
@@ -4828,8 +4846,8 @@
         <v>932</v>
       </c>
       <c r="F31" s="38">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>367</v>
       </c>
       <c r="G31" s="38">
         <v>0</v>
@@ -4838,7 +4856,8 @@
         <v>0</v>
       </c>
       <c r="I31" s="38">
-        <v>0</v>
+        <f>4405</f>
+        <v>4405</v>
       </c>
       <c r="J31" s="38">
         <v>0</v>
@@ -4889,7 +4908,7 @@
         <v>1200</v>
       </c>
       <c r="F32" s="38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G32" s="38">
@@ -4948,7 +4967,7 @@
         <v>520</v>
       </c>
       <c r="F33" s="38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G33" s="38">
@@ -5004,7 +5023,7 @@
         <v>250</v>
       </c>
       <c r="F34" s="38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G34" s="38">
@@ -5062,7 +5081,7 @@
         <v>170</v>
       </c>
       <c r="F35" s="38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G35" s="38">
@@ -5121,7 +5140,7 @@
         <v>250</v>
       </c>
       <c r="F36" s="38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G36" s="38">
@@ -5180,7 +5199,7 @@
         <v>170</v>
       </c>
       <c r="F37" s="38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G37" s="38">
@@ -5239,7 +5258,7 @@
         <v>110</v>
       </c>
       <c r="F38" s="38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>110</v>
       </c>
       <c r="G38" s="38">
@@ -5298,7 +5317,7 @@
         <v>250</v>
       </c>
       <c r="F39" s="38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G39" s="38">
@@ -5361,7 +5380,7 @@
         <v>2000</v>
       </c>
       <c r="F40" s="38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G40" s="38">
@@ -5420,7 +5439,7 @@
         <v>200</v>
       </c>
       <c r="F41" s="38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G41" s="38">
@@ -5479,7 +5498,7 @@
         <v>9000</v>
       </c>
       <c r="F42" s="38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G42" s="38">
@@ -5538,7 +5557,7 @@
         <v>0</v>
       </c>
       <c r="F43" s="38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G43" s="38">
@@ -5597,7 +5616,7 @@
         <v>167</v>
       </c>
       <c r="F44" s="38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G44" s="38">
@@ -5656,8 +5675,8 @@
         <v>0</v>
       </c>
       <c r="F45" s="38">
-        <f t="shared" si="4"/>
-        <v>46</v>
+        <f t="shared" si="6"/>
+        <v>337</v>
       </c>
       <c r="G45" s="38">
         <f>151+100+300</f>
@@ -5667,7 +5686,8 @@
         <v>0</v>
       </c>
       <c r="I45" s="38">
-        <v>0</v>
+        <f>2737+750</f>
+        <v>3487</v>
       </c>
       <c r="J45" s="38">
         <v>0</v>
@@ -5716,55 +5736,55 @@
         <v>8000</v>
       </c>
       <c r="F46" s="38">
-        <f t="shared" si="4"/>
-        <v>4073</v>
+        <f t="shared" si="6"/>
+        <v>6019</v>
       </c>
       <c r="G46" s="38">
-        <f t="shared" ref="G46:R46" si="5">G47-G29-G32-G36-G37-G42-G44</f>
+        <f t="shared" ref="G46:R46" si="7">G47-G29-G32-G36-G37-G42-G44</f>
         <v>32483</v>
       </c>
       <c r="H46" s="38">
-        <f t="shared" ref="H46" si="6">H47-H29-H32-H36-H37-H42-H44</f>
+        <f t="shared" ref="H46:I46" si="8">H47-H29-H32-H36-H37-H42-H44</f>
         <v>16393</v>
       </c>
       <c r="I46" s="38">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>23347</v>
       </c>
       <c r="J46" s="38">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K46" s="38">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="L46" s="38">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M46" s="38">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="N46" s="38">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="O46" s="38">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="P46" s="38">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q46" s="38">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="R46" s="38">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="S46" s="2"/>
@@ -5785,8 +5805,8 @@
       <c r="D47" s="2"/>
       <c r="E47" s="45"/>
       <c r="F47" s="38">
-        <f t="shared" si="4"/>
-        <v>4219</v>
+        <f t="shared" si="6"/>
+        <v>6165</v>
       </c>
       <c r="G47" s="38">
         <v>33136</v>
@@ -5795,7 +5815,7 @@
         <v>17497</v>
       </c>
       <c r="I47" s="38">
-        <v>0</v>
+        <v>23347</v>
       </c>
       <c r="J47" s="38">
         <v>0</v>
@@ -5844,7 +5864,7 @@
         <v>2000</v>
       </c>
       <c r="F48" s="38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G48" s="38">
@@ -5905,7 +5925,7 @@
         <v>4000</v>
       </c>
       <c r="F49" s="38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G49" s="38">
@@ -5964,17 +5984,17 @@
         <v>1956</v>
       </c>
       <c r="F50" s="38">
-        <f t="shared" ref="F50:F55" si="7">ROUND(SUM(G50:R50)/antal_mån,0)</f>
-        <v>218</v>
+        <f t="shared" ref="F50:F55" si="9">ROUND(SUM(G50:R50)/antal_mån,0)</f>
+        <v>653</v>
       </c>
       <c r="G50" s="38">
         <v>2611</v>
       </c>
       <c r="H50" s="38">
-        <v>0</v>
+        <v>2611</v>
       </c>
       <c r="I50" s="38">
-        <v>0</v>
+        <v>2611</v>
       </c>
       <c r="J50" s="38">
         <v>0</v>
@@ -6023,17 +6043,17 @@
         <v>2527</v>
       </c>
       <c r="F51" s="38">
-        <f t="shared" si="7"/>
-        <v>216</v>
+        <f t="shared" si="9"/>
+        <v>652</v>
       </c>
       <c r="G51" s="38">
         <v>2588</v>
       </c>
       <c r="H51" s="38">
-        <v>0</v>
+        <v>2619</v>
       </c>
       <c r="I51" s="38">
-        <v>0</v>
+        <v>2619</v>
       </c>
       <c r="J51" s="38">
         <v>0</v>
@@ -6082,8 +6102,8 @@
         <v>230</v>
       </c>
       <c r="F52" s="38">
-        <f t="shared" si="7"/>
-        <v>62</v>
+        <f t="shared" si="9"/>
+        <v>83</v>
       </c>
       <c r="G52" s="38">
         <f>357+384</f>
@@ -6093,7 +6113,7 @@
         <v>0</v>
       </c>
       <c r="I52" s="38">
-        <v>0</v>
+        <v>255</v>
       </c>
       <c r="J52" s="38">
         <v>0</v>
@@ -6142,7 +6162,7 @@
         <v>150</v>
       </c>
       <c r="F53" s="38">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="G53" s="38">
@@ -6201,8 +6221,8 @@
         <v>3742</v>
       </c>
       <c r="F54" s="38">
-        <f t="shared" si="7"/>
-        <v>624</v>
+        <f t="shared" si="9"/>
+        <v>936</v>
       </c>
       <c r="G54" s="38">
         <v>3742</v>
@@ -6211,7 +6231,7 @@
         <v>3742</v>
       </c>
       <c r="I54" s="38">
-        <v>0</v>
+        <v>3742</v>
       </c>
       <c r="J54" s="38">
         <v>0</v>
@@ -6260,7 +6280,7 @@
         <v>0</v>
       </c>
       <c r="F55" s="38">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="G55" s="38">
@@ -6320,7 +6340,7 @@
       </c>
       <c r="F56" s="38">
         <f>ROUND(SUM(G56:R56)/antal_mån,0)</f>
-        <v>987</v>
+        <v>1480</v>
       </c>
       <c r="G56" s="38">
         <v>5918</v>
@@ -6329,7 +6349,7 @@
         <v>5931</v>
       </c>
       <c r="I56" s="38">
-        <v>0</v>
+        <v>5914</v>
       </c>
       <c r="J56" s="38">
         <v>0</v>
